--- a/biology/Zoologie/Akrav_israchanani/Akrav_israchanani.xlsx
+++ b/biology/Zoologie/Akrav_israchanani/Akrav_israchanani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akrav israchanani, unique représentant du genre Akrav et de la famille des Akravidae, est une espèce probablement éteinte de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique de la caverne d'Ayalon (he) à Ramla en Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique de la caverne d'Ayalon (he) à Ramla en Israël.
 Cette caverne est située sous une couche de craie où les eaux de pluie ne s'infiltrent pas. Elle fait environ 2 kilomètres de longueur. Dans cette caverne vivent diverses espèces reliques du Cénozoïque.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce scorpion est anophthalme et montre des caractéristiques typiques des troglobies. Les spécimens retrouvés font environ 50 millimètres de longueur, et ont une couleur brunâtre[2].
-Cette espèce a été découverte sous forme d'une vingtaine d'exosquelettes non fossilisés[1].
-Elle n'est actuellement connue que par de spécimens morts, probablement pour cause d'assèchement de la grotte par sur-pompage de la nappe phréatique dans les années 1960 à 1990, mais dans un état de conservation exceptionnelle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce scorpion est anophthalme et montre des caractéristiques typiques des troglobies. Les spécimens retrouvés font environ 50 millimètres de longueur, et ont une couleur brunâtre.
+Cette espèce a été découverte sous forme d'une vingtaine d'exosquelettes non fossilisés.
+Elle n'est actuellement connue que par de spécimens morts, probablement pour cause d'assèchement de la grotte par sur-pompage de la nappe phréatique dans les années 1960 à 1990, mais dans un état de conservation exceptionnelle.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Levy, 2007 : The first troglobite scorpion from Israel and a new chactoid family (Arachnida: Scorpiones), Zoology in the Middle East, vol. 40, p. 91-96 (en).</t>
         </is>
